--- a/Data/dont_push/CTtests-arrowgobies_2019Lab2021field.xlsx
+++ b/Data/dont_push/CTtests-arrowgobies_2019Lab2021field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/dont_push/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FD246-30BD-5740-8B51-D959EDCC9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3298AC-1C91-5B4B-B8F7-E41B48F2593A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -434,6 +440,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -652,9 +674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0870C-6093-FC42-B29E-1113A9012FFD}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O501" sqref="O1:O501"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B449" sqref="B449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -31973,1113 +31995,1113 @@
         <v>86</v>
       </c>
     </row>
-    <row r="409" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A409" s="8">
+    <row r="409" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="33">
         <v>44460</v>
       </c>
-      <c r="B409" s="29">
+      <c r="B409" s="34">
         <v>44460</v>
       </c>
-      <c r="C409" s="21">
+      <c r="C409" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D409" s="24" t="s">
+      <c r="D409" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E409" s="24" t="str">
+      <c r="E409" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F409">
+      <c r="F409" s="37">
         <v>35</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="37">
         <v>238</v>
       </c>
-      <c r="H409">
+      <c r="H409" s="37">
         <v>1</v>
       </c>
-      <c r="I409" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J409" s="16">
+      <c r="I409" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J409" s="42">
         <v>37.200000000000003</v>
       </c>
-      <c r="K409" s="4" t="s">
+      <c r="K409" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L409" s="4" t="s">
+      <c r="L409" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M409" s="4" t="s">
+      <c r="M409" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N409" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O409" s="24" t="str">
+      <c r="N409" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O409" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P409" s="4" t="str">
+      <c r="P409" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q409" s="4" t="s">
+      <c r="Q409" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R409" s="2">
+      <c r="R409" s="43">
         <v>20.3</v>
       </c>
-      <c r="S409" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T409" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U409" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V409" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W409" s="4" t="s">
+      <c r="S409" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T409" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U409" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V409" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W409" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="410" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A410" s="8">
+    <row r="410" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="33">
         <v>44460</v>
       </c>
-      <c r="B410" s="29">
+      <c r="B410" s="34">
         <v>44460</v>
       </c>
-      <c r="C410" s="21">
+      <c r="C410" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D410" s="24" t="s">
+      <c r="D410" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E410" s="24" t="str">
+      <c r="E410" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F410">
+      <c r="F410" s="37">
         <v>35</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="37">
         <v>237</v>
       </c>
-      <c r="H410">
+      <c r="H410" s="37">
         <v>2</v>
       </c>
-      <c r="I410" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J410" s="16">
+      <c r="I410" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J410" s="42">
         <v>37.299999999999997</v>
       </c>
-      <c r="K410" s="4" t="s">
+      <c r="K410" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L410" s="4" t="s">
+      <c r="L410" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M410" s="4" t="s">
+      <c r="M410" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N410" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O410" s="24" t="str">
+      <c r="N410" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O410" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P410" s="4" t="str">
+      <c r="P410" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q410" s="4" t="s">
+      <c r="Q410" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R410" s="2">
+      <c r="R410" s="43">
         <v>20.3</v>
       </c>
-      <c r="S410" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T410" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U410" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V410" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W410" s="4" t="s">
+      <c r="S410" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T410" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U410" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V410" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W410" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="411" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A411" s="8">
+    <row r="411" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="33">
         <v>44460</v>
       </c>
-      <c r="B411" s="29">
+      <c r="B411" s="34">
         <v>44460</v>
       </c>
-      <c r="C411" s="21">
+      <c r="C411" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D411" s="24" t="s">
+      <c r="D411" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E411" s="24" t="str">
+      <c r="E411" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F411">
+      <c r="F411" s="37">
         <v>38</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="37">
         <v>354</v>
       </c>
-      <c r="H411">
+      <c r="H411" s="37">
         <v>3</v>
       </c>
-      <c r="I411" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J411" s="16">
+      <c r="I411" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J411" s="42">
         <v>37.299999999999997</v>
       </c>
-      <c r="K411" s="4" t="s">
+      <c r="K411" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L411" s="4" t="s">
+      <c r="L411" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M411" s="4" t="s">
+      <c r="M411" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N411" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O411" s="24" t="str">
+      <c r="N411" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O411" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P411" s="4" t="str">
+      <c r="P411" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q411" s="4" t="s">
+      <c r="Q411" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R411" s="2">
+      <c r="R411" s="43">
         <v>20.3</v>
       </c>
-      <c r="S411" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T411" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U411" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V411" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W411" s="4" t="s">
+      <c r="S411" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T411" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U411" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V411" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W411" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="412" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A412" s="8">
+    <row r="412" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="33">
         <v>44460</v>
       </c>
-      <c r="B412" s="29">
+      <c r="B412" s="34">
         <v>44460</v>
       </c>
-      <c r="C412" s="21">
+      <c r="C412" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D412" s="24" t="s">
+      <c r="D412" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E412" s="24" t="str">
+      <c r="E412" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F412">
+      <c r="F412" s="37">
         <v>33</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="37">
         <v>185</v>
       </c>
-      <c r="H412">
+      <c r="H412" s="37">
         <v>4</v>
       </c>
-      <c r="I412" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J412" s="16">
+      <c r="I412" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J412" s="42">
         <v>37.299999999999997</v>
       </c>
-      <c r="K412" s="4" t="s">
+      <c r="K412" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L412" s="4" t="s">
+      <c r="L412" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M412" s="4" t="s">
+      <c r="M412" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N412" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O412" s="24" t="str">
+      <c r="N412" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O412" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P412" s="4" t="str">
+      <c r="P412" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q412" s="4" t="s">
+      <c r="Q412" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R412" s="2">
+      <c r="R412" s="43">
         <v>20.3</v>
       </c>
-      <c r="S412" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T412" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U412" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V412" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W412" s="4" t="s">
+      <c r="S412" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T412" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U412" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V412" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W412" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="413" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A413" s="8">
+    <row r="413" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="33">
         <v>44460</v>
       </c>
-      <c r="B413" s="29">
+      <c r="B413" s="34">
         <v>44460</v>
       </c>
-      <c r="C413" s="21">
+      <c r="C413" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D413" s="24" t="s">
+      <c r="D413" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E413" s="24" t="str">
+      <c r="E413" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F413">
+      <c r="F413" s="37">
         <v>37</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="37">
         <v>280</v>
       </c>
-      <c r="H413">
+      <c r="H413" s="37">
         <v>5</v>
       </c>
-      <c r="I413" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J413" s="16">
+      <c r="I413" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J413" s="42">
         <v>37.299999999999997</v>
       </c>
-      <c r="K413" s="4" t="s">
+      <c r="K413" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L413" s="4" t="s">
+      <c r="L413" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M413" s="4" t="s">
+      <c r="M413" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N413" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O413" s="24" t="str">
+      <c r="N413" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O413" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P413" s="4" t="str">
+      <c r="P413" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q413" s="4" t="s">
+      <c r="Q413" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R413" s="2">
+      <c r="R413" s="43">
         <v>20.3</v>
       </c>
-      <c r="S413" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T413" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U413" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V413" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W413" s="4" t="s">
+      <c r="S413" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T413" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U413" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V413" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W413" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="414" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A414" s="8">
+    <row r="414" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="33">
         <v>44460</v>
       </c>
-      <c r="B414" s="29">
+      <c r="B414" s="34">
         <v>44460</v>
       </c>
-      <c r="C414" s="21">
+      <c r="C414" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D414" s="24" t="s">
+      <c r="D414" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E414" s="24" t="str">
+      <c r="E414" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F414">
+      <c r="F414" s="37">
         <v>32</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="37">
         <v>165</v>
       </c>
-      <c r="H414">
+      <c r="H414" s="37">
         <v>6</v>
       </c>
-      <c r="I414" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J414" s="16">
+      <c r="I414" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J414" s="42">
         <v>37.4</v>
       </c>
-      <c r="K414" s="4" t="s">
+      <c r="K414" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L414" s="4" t="s">
+      <c r="L414" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M414" s="4" t="s">
+      <c r="M414" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N414" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O414" s="24" t="str">
+      <c r="N414" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O414" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P414" s="4" t="str">
+      <c r="P414" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q414" s="4" t="s">
+      <c r="Q414" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R414" s="2">
+      <c r="R414" s="43">
         <v>20.3</v>
       </c>
-      <c r="S414" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T414" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U414" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V414" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W414" s="4" t="s">
+      <c r="S414" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T414" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U414" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V414" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W414" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="415" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A415" s="8">
+    <row r="415" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="33">
         <v>44460</v>
       </c>
-      <c r="B415" s="29">
+      <c r="B415" s="34">
         <v>44460</v>
       </c>
-      <c r="C415" s="21">
+      <c r="C415" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D415" s="24" t="s">
+      <c r="D415" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E415" s="24" t="str">
+      <c r="E415" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F415">
+      <c r="F415" s="37">
         <v>33</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="37">
         <v>217</v>
       </c>
-      <c r="H415">
+      <c r="H415" s="37">
         <v>7</v>
       </c>
-      <c r="I415" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J415" s="16">
+      <c r="I415" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J415" s="42">
         <v>37.4</v>
       </c>
-      <c r="K415" s="4" t="s">
+      <c r="K415" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L415" s="4" t="s">
+      <c r="L415" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M415" s="4" t="s">
+      <c r="M415" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N415" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O415" s="24" t="str">
+      <c r="N415" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O415" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P415" s="4" t="str">
+      <c r="P415" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q415" s="4" t="s">
+      <c r="Q415" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R415" s="2">
+      <c r="R415" s="43">
         <v>20.3</v>
       </c>
-      <c r="S415" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T415" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U415" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V415" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W415" s="4" t="s">
+      <c r="S415" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T415" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U415" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V415" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W415" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="416" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A416" s="8">
+    <row r="416" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="33">
         <v>44460</v>
       </c>
-      <c r="B416" s="29">
+      <c r="B416" s="34">
         <v>44460</v>
       </c>
-      <c r="C416" s="21">
+      <c r="C416" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D416" s="24" t="s">
+      <c r="D416" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E416" s="24" t="str">
+      <c r="E416" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F416">
+      <c r="F416" s="37">
         <v>33</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="37">
         <v>184</v>
       </c>
-      <c r="H416">
+      <c r="H416" s="37">
         <v>8</v>
       </c>
-      <c r="I416" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J416" s="16">
+      <c r="I416" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J416" s="42">
         <v>37.4</v>
       </c>
-      <c r="K416" s="4" t="s">
+      <c r="K416" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L416" s="4" t="s">
+      <c r="L416" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M416" s="4" t="s">
+      <c r="M416" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N416" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O416" s="24" t="str">
+      <c r="N416" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O416" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P416" s="4" t="str">
+      <c r="P416" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q416" s="4" t="s">
+      <c r="Q416" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R416" s="2">
+      <c r="R416" s="43">
         <v>20.3</v>
       </c>
-      <c r="S416" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T416" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U416" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V416" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W416" s="4" t="s">
+      <c r="S416" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T416" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U416" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V416" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W416" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="417" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A417" s="8">
+    <row r="417" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="33">
         <v>44460</v>
       </c>
-      <c r="B417" s="29">
+      <c r="B417" s="34">
         <v>44460</v>
       </c>
-      <c r="C417" s="21">
+      <c r="C417" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D417" s="24" t="s">
+      <c r="D417" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E417" s="24" t="str">
+      <c r="E417" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F417">
+      <c r="F417" s="37">
         <v>44</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="37">
         <v>482</v>
       </c>
-      <c r="H417">
+      <c r="H417" s="37">
         <v>9</v>
       </c>
-      <c r="I417" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J417" s="16">
+      <c r="I417" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J417" s="42">
         <v>37.5</v>
       </c>
-      <c r="K417" s="4" t="s">
+      <c r="K417" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L417" s="4" t="s">
+      <c r="L417" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M417" s="4" t="s">
+      <c r="M417" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N417" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O417" s="24" t="str">
+      <c r="N417" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O417" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P417" s="4" t="str">
+      <c r="P417" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q417" s="4" t="s">
+      <c r="Q417" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R417" s="2">
+      <c r="R417" s="43">
         <v>20.3</v>
       </c>
-      <c r="S417" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T417" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U417" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V417" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W417" s="4" t="s">
+      <c r="S417" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T417" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U417" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V417" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W417" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="418" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A418" s="8">
+    <row r="418" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="33">
         <v>44460</v>
       </c>
-      <c r="B418" s="29">
+      <c r="B418" s="34">
         <v>44460</v>
       </c>
-      <c r="C418" s="21">
+      <c r="C418" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D418" s="24" t="s">
+      <c r="D418" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E418" s="24" t="str">
+      <c r="E418" s="36" t="str">
         <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F418">
+      <c r="F418" s="37">
         <v>36</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="37">
         <v>230</v>
       </c>
-      <c r="H418">
+      <c r="H418" s="37">
         <v>10</v>
       </c>
-      <c r="I418" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J418" s="16">
+      <c r="I418" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J418" s="42">
         <v>37.6</v>
       </c>
-      <c r="K418" s="4" t="s">
+      <c r="K418" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L418" s="4" t="s">
+      <c r="L418" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M418" s="4" t="s">
+      <c r="M418" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N418" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O418" s="24" t="str">
+      <c r="N418" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O418" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P418" s="4" t="str">
+      <c r="P418" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q418" s="4" t="s">
+      <c r="Q418" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R418" s="2">
+      <c r="R418" s="43">
         <v>20.3</v>
       </c>
-      <c r="S418" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T418" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U418" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V418" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W418" s="4" t="s">
+      <c r="S418" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T418" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U418" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V418" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W418" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="419" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A419" s="8">
+    <row r="419" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="33">
         <v>44460</v>
       </c>
-      <c r="B419" s="29">
+      <c r="B419" s="34">
         <v>44460</v>
       </c>
-      <c r="C419" s="21">
+      <c r="C419" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D419" s="24" t="s">
+      <c r="D419" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E419" s="24" t="str">
+      <c r="E419" s="36" t="str">
         <f t="shared" ref="E419:E482" si="41">CONCATENATE(Q419, "-", B419)</f>
         <v>FIELD-44460</v>
       </c>
-      <c r="F419">
+      <c r="F419" s="37">
         <v>38</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="37">
         <v>235</v>
       </c>
-      <c r="H419">
+      <c r="H419" s="37">
         <v>11</v>
       </c>
-      <c r="I419" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J419" s="16">
+      <c r="I419" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J419" s="42">
         <v>37.799999999999997</v>
       </c>
-      <c r="K419" s="4" t="s">
+      <c r="K419" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L419" s="4" t="s">
+      <c r="L419" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M419" s="4" t="s">
+      <c r="M419" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N419" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O419" s="24" t="str">
+      <c r="N419" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O419" s="36" t="str">
         <f t="shared" si="39"/>
         <v>field10</v>
       </c>
-      <c r="P419" s="4" t="str">
+      <c r="P419" s="38" t="str">
         <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
-      <c r="Q419" s="4" t="s">
+      <c r="Q419" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R419" s="2">
+      <c r="R419" s="43">
         <v>20.3</v>
       </c>
-      <c r="S419" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T419" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U419" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V419" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W419" s="4" t="s">
+      <c r="S419" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T419" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U419" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V419" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W419" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="420" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A420" s="8">
+    <row r="420" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="33">
         <v>44460</v>
       </c>
-      <c r="B420" s="29">
+      <c r="B420" s="34">
         <v>44460</v>
       </c>
-      <c r="C420" s="21">
+      <c r="C420" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D420" s="24" t="s">
+      <c r="D420" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E420" s="24" t="str">
+      <c r="E420" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F420">
+      <c r="F420" s="37">
         <v>36</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="37">
         <v>233</v>
       </c>
-      <c r="H420">
+      <c r="H420" s="37">
         <v>12</v>
       </c>
-      <c r="I420" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J420" s="16">
+      <c r="I420" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J420" s="42">
         <v>37.799999999999997</v>
       </c>
-      <c r="K420" s="4" t="s">
+      <c r="K420" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L420" s="4" t="s">
+      <c r="L420" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M420" s="4" t="s">
+      <c r="M420" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N420" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O420" s="24" t="str">
+      <c r="N420" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O420" s="36" t="str">
         <f t="shared" ref="O420:O483" si="42">D420</f>
         <v>field10</v>
       </c>
-      <c r="P420" s="4" t="str">
+      <c r="P420" s="38" t="str">
         <f t="shared" ref="P420:P483" si="43">Q420</f>
         <v>FIELD</v>
       </c>
-      <c r="Q420" s="4" t="s">
+      <c r="Q420" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R420" s="2">
+      <c r="R420" s="43">
         <v>20.3</v>
       </c>
-      <c r="S420" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T420" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U420" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V420" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W420" s="4" t="s">
+      <c r="S420" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T420" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U420" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V420" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W420" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="421" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A421" s="8">
+    <row r="421" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="33">
         <v>44460</v>
       </c>
-      <c r="B421" s="29">
+      <c r="B421" s="34">
         <v>44460</v>
       </c>
-      <c r="C421" s="21">
+      <c r="C421" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D421" s="24" t="s">
+      <c r="D421" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E421" s="24" t="str">
+      <c r="E421" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F421">
+      <c r="F421" s="37">
         <v>35</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="37">
         <v>231</v>
       </c>
-      <c r="H421">
+      <c r="H421" s="37">
         <v>13</v>
       </c>
-      <c r="I421" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J421" s="16">
+      <c r="I421" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J421" s="42">
         <v>37.799999999999997</v>
       </c>
-      <c r="K421" s="4" t="s">
+      <c r="K421" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L421" s="4" t="s">
+      <c r="L421" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M421" s="4" t="s">
+      <c r="M421" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N421" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O421" s="24" t="str">
+      <c r="N421" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O421" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field10</v>
       </c>
-      <c r="P421" s="4" t="str">
+      <c r="P421" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q421" s="4" t="s">
+      <c r="Q421" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R421" s="2">
+      <c r="R421" s="43">
         <v>20.3</v>
       </c>
-      <c r="S421" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T421" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U421" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V421" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W421" s="4" t="s">
+      <c r="S421" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T421" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U421" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V421" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W421" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="422" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A422" s="8">
+    <row r="422" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="33">
         <v>44460</v>
       </c>
-      <c r="B422" s="29">
+      <c r="B422" s="34">
         <v>44460</v>
       </c>
-      <c r="C422" s="21">
+      <c r="C422" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D422" s="24" t="s">
+      <c r="D422" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E422" s="24" t="str">
+      <c r="E422" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F422">
+      <c r="F422" s="37">
         <v>38</v>
       </c>
-      <c r="G422">
+      <c r="G422" s="37">
         <v>313</v>
       </c>
-      <c r="H422">
+      <c r="H422" s="37">
         <v>14</v>
       </c>
-      <c r="I422" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J422" s="16">
+      <c r="I422" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J422" s="42">
         <v>37.6</v>
       </c>
-      <c r="K422" s="4" t="s">
+      <c r="K422" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L422" s="4" t="s">
+      <c r="L422" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M422" s="4" t="s">
+      <c r="M422" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N422" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O422" s="24" t="str">
+      <c r="N422" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O422" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field10</v>
       </c>
-      <c r="P422" s="4" t="str">
+      <c r="P422" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q422" s="4" t="s">
+      <c r="Q422" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R422" s="2">
+      <c r="R422" s="43">
         <v>20.3</v>
       </c>
-      <c r="S422" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T422" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U422" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V422" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W422" s="4" t="s">
+      <c r="S422" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T422" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U422" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V422" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W422" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="423" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A423" s="20">
+    <row r="423" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="44">
         <v>44460</v>
       </c>
-      <c r="B423" s="31">
+      <c r="B423" s="45">
         <v>44460</v>
       </c>
-      <c r="C423" s="21">
+      <c r="C423" s="35">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D423" s="24" t="s">
+      <c r="D423" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E423" s="24" t="str">
+      <c r="E423" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F423" s="7">
+      <c r="F423" s="41">
         <v>22</v>
       </c>
-      <c r="G423" s="7">
+      <c r="G423" s="41">
         <v>88</v>
       </c>
-      <c r="H423" s="7">
+      <c r="H423" s="41">
         <v>15</v>
       </c>
-      <c r="I423" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J423" s="17">
+      <c r="I423" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J423" s="46">
         <v>37.6</v>
       </c>
-      <c r="K423" s="4" t="s">
+      <c r="K423" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L423" s="4" t="s">
+      <c r="L423" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M423" s="4" t="s">
+      <c r="M423" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N423" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O423" s="24" t="str">
+      <c r="N423" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O423" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field10</v>
       </c>
-      <c r="P423" s="4" t="str">
+      <c r="P423" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q423" s="4" t="s">
+      <c r="Q423" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R423" s="2">
+      <c r="R423" s="43">
         <v>20.3</v>
       </c>
-      <c r="S423" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T423" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U423" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V423" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W423" s="4" t="s">
+      <c r="S423" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T423" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U423" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V423" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W423" s="38" t="s">
         <v>86</v>
       </c>
     </row>
@@ -34267,965 +34289,965 @@
         <v>86</v>
       </c>
     </row>
-    <row r="440" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A440" s="8">
+    <row r="440" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="33">
         <v>44460</v>
       </c>
-      <c r="B440" s="29">
+      <c r="B440" s="34">
         <v>44460</v>
       </c>
-      <c r="C440" s="21">
+      <c r="C440" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D440" s="24" t="s">
+      <c r="D440" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E440" s="24" t="str">
+      <c r="E440" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F440">
+      <c r="F440" s="37">
         <v>35</v>
       </c>
-      <c r="G440">
+      <c r="G440" s="37">
         <v>290</v>
       </c>
-      <c r="H440">
+      <c r="H440" s="37">
         <v>1</v>
       </c>
-      <c r="I440" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J440" s="15">
+      <c r="I440" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J440" s="39">
         <v>37.200000000000003</v>
       </c>
-      <c r="K440" s="4" t="s">
+      <c r="K440" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L440" s="4" t="s">
+      <c r="L440" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M440" s="4" t="s">
+      <c r="M440" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N440" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O440" s="24" t="str">
+      <c r="N440" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O440" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P440" s="4" t="str">
+      <c r="P440" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q440" s="4" t="s">
+      <c r="Q440" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R440">
+      <c r="R440" s="37">
         <v>26.1</v>
       </c>
-      <c r="S440" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T440" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U440" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V440" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W440" s="4" t="s">
+      <c r="S440" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T440" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U440" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V440" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W440" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="441" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A441" s="8">
+    <row r="441" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="33">
         <v>44460</v>
       </c>
-      <c r="B441" s="29">
+      <c r="B441" s="34">
         <v>44460</v>
       </c>
-      <c r="C441" s="21">
+      <c r="C441" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D441" s="24" t="s">
+      <c r="D441" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E441" s="24" t="str">
+      <c r="E441" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F441">
+      <c r="F441" s="37">
         <v>39</v>
       </c>
-      <c r="G441">
+      <c r="G441" s="37">
         <v>325</v>
       </c>
-      <c r="H441">
+      <c r="H441" s="37">
         <v>2</v>
       </c>
-      <c r="I441" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J441" s="15">
+      <c r="I441" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J441" s="39">
         <v>37.9</v>
       </c>
-      <c r="K441" s="4" t="s">
+      <c r="K441" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L441" s="4" t="s">
+      <c r="L441" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M441" s="4" t="s">
+      <c r="M441" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N441" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O441" s="24" t="str">
+      <c r="N441" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O441" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P441" s="4" t="str">
+      <c r="P441" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q441" s="4" t="s">
+      <c r="Q441" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R441">
+      <c r="R441" s="37">
         <v>26.1</v>
       </c>
-      <c r="S441" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T441" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U441" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V441" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W441" s="4" t="s">
+      <c r="S441" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T441" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U441" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V441" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W441" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="442" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A442" s="8">
+    <row r="442" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="33">
         <v>44460</v>
       </c>
-      <c r="B442" s="29">
+      <c r="B442" s="34">
         <v>44460</v>
       </c>
-      <c r="C442" s="21">
+      <c r="C442" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D442" s="24" t="s">
+      <c r="D442" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E442" s="24" t="str">
+      <c r="E442" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F442">
+      <c r="F442" s="37">
         <v>38</v>
       </c>
-      <c r="G442">
+      <c r="G442" s="37">
         <v>306</v>
       </c>
-      <c r="H442">
+      <c r="H442" s="37">
         <v>3</v>
       </c>
-      <c r="I442" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J442" s="15">
+      <c r="I442" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J442" s="39">
         <v>38</v>
       </c>
-      <c r="K442" s="4" t="s">
+      <c r="K442" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L442" s="4" t="s">
+      <c r="L442" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M442" s="4" t="s">
+      <c r="M442" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N442" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O442" s="24" t="str">
+      <c r="N442" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O442" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P442" s="4" t="str">
+      <c r="P442" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q442" s="4" t="s">
+      <c r="Q442" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R442">
+      <c r="R442" s="37">
         <v>26.1</v>
       </c>
-      <c r="S442" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T442" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U442" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V442" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W442" s="4" t="s">
+      <c r="S442" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T442" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U442" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V442" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W442" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="443" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A443" s="8">
+    <row r="443" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="33">
         <v>44460</v>
       </c>
-      <c r="B443" s="29">
+      <c r="B443" s="34">
         <v>44460</v>
       </c>
-      <c r="C443" s="21">
+      <c r="C443" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D443" s="24" t="s">
+      <c r="D443" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E443" s="24" t="str">
+      <c r="E443" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F443">
+      <c r="F443" s="37">
         <v>41</v>
       </c>
-      <c r="G443">
+      <c r="G443" s="37">
         <v>398</v>
       </c>
-      <c r="H443">
+      <c r="H443" s="37">
         <v>4</v>
       </c>
-      <c r="I443" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J443" s="15">
+      <c r="I443" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J443" s="39">
         <v>38</v>
       </c>
-      <c r="K443" s="4" t="s">
+      <c r="K443" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L443" s="4" t="s">
+      <c r="L443" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M443" s="4" t="s">
+      <c r="M443" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N443" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O443" s="24" t="str">
+      <c r="N443" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O443" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P443" s="4" t="str">
+      <c r="P443" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q443" s="4" t="s">
+      <c r="Q443" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R443">
+      <c r="R443" s="37">
         <v>26.1</v>
       </c>
-      <c r="S443" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T443" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U443" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V443" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W443" s="4" t="s">
+      <c r="S443" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T443" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U443" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V443" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W443" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="444" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A444" s="8">
+    <row r="444" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="33">
         <v>44460</v>
       </c>
-      <c r="B444" s="29">
+      <c r="B444" s="34">
         <v>44460</v>
       </c>
-      <c r="C444" s="21">
+      <c r="C444" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D444" s="24" t="s">
+      <c r="D444" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E444" s="24" t="str">
+      <c r="E444" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F444">
+      <c r="F444" s="37">
         <v>27</v>
       </c>
-      <c r="G444">
+      <c r="G444" s="37">
         <v>102</v>
       </c>
-      <c r="H444">
+      <c r="H444" s="37">
         <v>5</v>
       </c>
-      <c r="I444" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J444" s="15">
+      <c r="I444" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J444" s="39">
         <v>37.9</v>
       </c>
-      <c r="K444" s="4" t="s">
+      <c r="K444" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L444" s="4" t="s">
+      <c r="L444" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M444" s="4" t="s">
+      <c r="M444" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N444" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O444" s="24" t="str">
+      <c r="N444" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O444" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P444" s="4" t="str">
+      <c r="P444" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q444" s="4" t="s">
+      <c r="Q444" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R444">
+      <c r="R444" s="37">
         <v>26.1</v>
       </c>
-      <c r="S444" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T444" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U444" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V444" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W444" s="4" t="s">
+      <c r="S444" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T444" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U444" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V444" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W444" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="445" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A445" s="8">
+    <row r="445" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="33">
         <v>44460</v>
       </c>
-      <c r="B445" s="29">
+      <c r="B445" s="34">
         <v>44460</v>
       </c>
-      <c r="C445" s="21">
+      <c r="C445" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D445" s="24" t="s">
+      <c r="D445" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E445" s="24" t="str">
+      <c r="E445" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F445">
+      <c r="F445" s="37">
         <v>34</v>
       </c>
-      <c r="G445" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H445">
+      <c r="G445" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H445" s="37">
         <v>6</v>
       </c>
-      <c r="I445" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J445" s="15">
+      <c r="I445" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J445" s="39">
         <v>37.9</v>
       </c>
-      <c r="K445" s="4" t="s">
+      <c r="K445" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L445" s="4" t="s">
+      <c r="L445" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M445" s="4" t="s">
+      <c r="M445" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N445" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O445" s="24" t="str">
+      <c r="N445" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O445" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P445" s="4" t="str">
+      <c r="P445" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q445" s="4" t="s">
+      <c r="Q445" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R445">
+      <c r="R445" s="37">
         <v>26.1</v>
       </c>
-      <c r="S445" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T445" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U445" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V445" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W445" s="4" t="s">
+      <c r="S445" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T445" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U445" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V445" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W445" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="446" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A446" s="8">
+    <row r="446" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="33">
         <v>44460</v>
       </c>
-      <c r="B446" s="29">
+      <c r="B446" s="34">
         <v>44460</v>
       </c>
-      <c r="C446" s="21">
+      <c r="C446" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D446" s="24" t="s">
+      <c r="D446" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E446" s="24" t="str">
+      <c r="E446" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F446" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G446" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H446">
+      <c r="F446" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G446" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H446" s="37">
         <v>7</v>
       </c>
-      <c r="I446" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J446" s="15">
+      <c r="I446" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J446" s="39">
         <v>38</v>
       </c>
-      <c r="K446" s="4" t="s">
+      <c r="K446" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L446" s="4" t="s">
+      <c r="L446" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M446" s="4" t="s">
+      <c r="M446" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N446" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O446" s="24" t="str">
+      <c r="N446" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O446" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P446" s="4" t="str">
+      <c r="P446" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q446" s="4" t="s">
+      <c r="Q446" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R446">
+      <c r="R446" s="37">
         <v>26.1</v>
       </c>
-      <c r="S446" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T446" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U446" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V446" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W446" s="4" t="s">
+      <c r="S446" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T446" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U446" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V446" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W446" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="447" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A447" s="8">
+    <row r="447" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="33">
         <v>44460</v>
       </c>
-      <c r="B447" s="29">
+      <c r="B447" s="34">
         <v>44460</v>
       </c>
-      <c r="C447" s="21">
+      <c r="C447" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D447" s="24" t="s">
+      <c r="D447" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E447" s="24" t="str">
+      <c r="E447" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F447" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G447" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H447">
+      <c r="F447" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G447" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H447" s="37">
         <v>8</v>
       </c>
-      <c r="I447" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J447" s="15">
+      <c r="I447" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J447" s="39">
         <v>38</v>
       </c>
-      <c r="K447" s="4" t="s">
+      <c r="K447" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L447" s="4" t="s">
+      <c r="L447" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M447" s="4" t="s">
+      <c r="M447" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N447" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O447" s="24" t="str">
+      <c r="N447" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O447" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P447" s="4" t="str">
+      <c r="P447" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q447" s="4" t="s">
+      <c r="Q447" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R447">
+      <c r="R447" s="37">
         <v>26.1</v>
       </c>
-      <c r="S447" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T447" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U447" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V447" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W447" s="4" t="s">
+      <c r="S447" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T447" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U447" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V447" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W447" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="448" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A448" s="8">
+    <row r="448" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="33">
         <v>44460</v>
       </c>
-      <c r="B448" s="29">
+      <c r="B448" s="34">
         <v>44460</v>
       </c>
-      <c r="C448" s="21">
+      <c r="C448" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D448" s="24" t="s">
+      <c r="D448" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E448" s="24" t="str">
+      <c r="E448" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F448">
+      <c r="F448" s="37">
         <v>40</v>
       </c>
-      <c r="G448">
+      <c r="G448" s="37">
         <v>348</v>
       </c>
-      <c r="H448">
+      <c r="H448" s="37">
         <v>10</v>
       </c>
-      <c r="I448" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J448" s="15">
+      <c r="I448" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J448" s="39">
         <v>38.299999999999997</v>
       </c>
-      <c r="K448" s="4" t="s">
+      <c r="K448" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L448" s="4" t="s">
+      <c r="L448" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M448" s="4" t="s">
+      <c r="M448" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N448" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O448" s="24" t="str">
+      <c r="N448" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O448" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P448" s="4" t="str">
+      <c r="P448" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q448" s="4" t="s">
+      <c r="Q448" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R448">
+      <c r="R448" s="37">
         <v>26.1</v>
       </c>
-      <c r="S448" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T448" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U448" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V448" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W448" s="4" t="s">
+      <c r="S448" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T448" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U448" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V448" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W448" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="449" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A449" s="8">
+    <row r="449" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="33">
         <v>44460</v>
       </c>
-      <c r="B449" s="29">
+      <c r="B449" s="34">
         <v>44460</v>
       </c>
-      <c r="C449" s="21">
+      <c r="C449" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D449" s="24" t="s">
+      <c r="D449" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E449" s="24" t="str">
+      <c r="E449" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F449">
+      <c r="F449" s="37">
         <v>34</v>
       </c>
-      <c r="G449">
+      <c r="G449" s="37">
         <v>244</v>
       </c>
-      <c r="H449">
+      <c r="H449" s="37">
         <v>11</v>
       </c>
-      <c r="I449" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J449" s="15">
+      <c r="I449" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J449" s="39">
         <v>38.299999999999997</v>
       </c>
-      <c r="K449" s="4" t="s">
+      <c r="K449" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L449" s="4" t="s">
+      <c r="L449" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M449" s="4" t="s">
+      <c r="M449" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N449" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O449" s="24" t="str">
+      <c r="N449" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O449" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P449" s="4" t="str">
+      <c r="P449" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q449" s="4" t="s">
+      <c r="Q449" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R449">
+      <c r="R449" s="37">
         <v>26.1</v>
       </c>
-      <c r="S449" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T449" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U449" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V449" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W449" s="4" t="s">
+      <c r="S449" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T449" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U449" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V449" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W449" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="450" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A450" s="8">
+    <row r="450" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="33">
         <v>44460</v>
       </c>
-      <c r="B450" s="29">
+      <c r="B450" s="34">
         <v>44460</v>
       </c>
-      <c r="C450" s="21">
+      <c r="C450" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D450" s="24" t="s">
+      <c r="D450" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E450" s="24" t="str">
+      <c r="E450" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F450">
+      <c r="F450" s="37">
         <v>36</v>
       </c>
-      <c r="G450">
+      <c r="G450" s="37">
         <v>258</v>
       </c>
-      <c r="H450">
+      <c r="H450" s="37">
         <v>12</v>
       </c>
-      <c r="I450" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J450" s="15">
+      <c r="I450" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J450" s="39">
         <v>38.299999999999997</v>
       </c>
-      <c r="K450" s="4" t="s">
+      <c r="K450" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L450" s="4" t="s">
+      <c r="L450" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M450" s="4" t="s">
+      <c r="M450" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N450" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O450" s="24" t="str">
+      <c r="N450" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O450" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P450" s="4" t="str">
+      <c r="P450" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q450" s="4" t="s">
+      <c r="Q450" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R450">
+      <c r="R450" s="37">
         <v>26.1</v>
       </c>
-      <c r="S450" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T450" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U450" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V450" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W450" s="4" t="s">
+      <c r="S450" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T450" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U450" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V450" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W450" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="451" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A451" s="8">
+    <row r="451" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="33">
         <v>44460</v>
       </c>
-      <c r="B451" s="29">
+      <c r="B451" s="34">
         <v>44460</v>
       </c>
-      <c r="C451" s="21">
+      <c r="C451" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D451" s="24" t="s">
+      <c r="D451" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E451" s="24" t="str">
+      <c r="E451" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F451">
+      <c r="F451" s="37">
         <v>34</v>
       </c>
-      <c r="G451">
+      <c r="G451" s="37">
         <v>215</v>
       </c>
-      <c r="H451">
+      <c r="H451" s="37">
         <v>13</v>
       </c>
-      <c r="I451" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J451" s="15">
+      <c r="I451" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J451" s="39">
         <v>38.5</v>
       </c>
-      <c r="K451" s="4" t="s">
+      <c r="K451" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L451" s="4" t="s">
+      <c r="L451" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M451" s="4" t="s">
+      <c r="M451" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N451" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O451" s="24" t="str">
+      <c r="N451" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O451" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P451" s="4" t="str">
+      <c r="P451" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q451" s="4" t="s">
+      <c r="Q451" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R451">
+      <c r="R451" s="37">
         <v>26.1</v>
       </c>
-      <c r="S451" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T451" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U451" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V451" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W451" s="4" t="s">
+      <c r="S451" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T451" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U451" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V451" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W451" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="452" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A452" s="8">
+    <row r="452" spans="1:23" s="37" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="33">
         <v>44460</v>
       </c>
-      <c r="B452" s="29">
+      <c r="B452" s="34">
         <v>44460</v>
       </c>
-      <c r="C452" s="21">
+      <c r="C452" s="35">
         <v>0.60833333333333328</v>
       </c>
-      <c r="D452" s="24" t="s">
+      <c r="D452" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E452" s="24" t="str">
+      <c r="E452" s="36" t="str">
         <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
-      <c r="F452" s="7">
+      <c r="F452" s="41">
         <v>26</v>
       </c>
-      <c r="G452" s="7">
+      <c r="G452" s="41">
         <v>100</v>
       </c>
-      <c r="H452" s="7">
+      <c r="H452" s="41">
         <v>14</v>
       </c>
-      <c r="I452" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J452" s="15">
+      <c r="I452" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J452" s="39">
         <v>38.9</v>
       </c>
-      <c r="K452" s="4" t="s">
+      <c r="K452" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L452" s="4" t="s">
+      <c r="L452" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="M452" s="4" t="s">
+      <c r="M452" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N452" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O452" s="24" t="str">
+      <c r="N452" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O452" s="36" t="str">
         <f t="shared" si="42"/>
         <v>field12</v>
       </c>
-      <c r="P452" s="4" t="str">
+      <c r="P452" s="38" t="str">
         <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
-      <c r="Q452" s="4" t="s">
+      <c r="Q452" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="R452">
+      <c r="R452" s="37">
         <v>26.1</v>
       </c>
-      <c r="S452" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T452" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U452" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="V452" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="W452" s="4" t="s">
+      <c r="S452" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="T452" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U452" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="V452" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="W452" s="38" t="s">
         <v>86</v>
       </c>
     </row>
